--- a/Results/Calculation/lda2vec.xlsx
+++ b/Results/Calculation/lda2vec.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.68</v>
+      </c>
+      <c r="H2">
         <v>0.64</v>
       </c>
-      <c r="G2">
-        <v>0.72</v>
-      </c>
-      <c r="H2">
-        <v>0.68</v>
-      </c>
       <c r="I2">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,10 +464,10 @@
         <v>180</v>
       </c>
       <c r="C3">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>37</v>
@@ -493,16 +493,16 @@
         <v>126</v>
       </c>
       <c r="C4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>28</v>
       </c>
       <c r="F4">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G4">
         <v>0.82</v>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>323</v>
@@ -528,16 +528,16 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>0.86</v>
       </c>
       <c r="G5">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="H5">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I5">
         <v>0.84</v>
